--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1rn</t>
   </si>
   <si>
     <t>Il1r2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H2">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I2">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J2">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.297755428882497</v>
+        <v>0.308173</v>
       </c>
       <c r="N2">
-        <v>0.297755428882497</v>
+        <v>0.6163460000000001</v>
       </c>
       <c r="O2">
-        <v>0.01825295104879127</v>
+        <v>0.01562452111805829</v>
       </c>
       <c r="P2">
-        <v>0.01825295104879127</v>
+        <v>0.01052496837195314</v>
       </c>
       <c r="Q2">
-        <v>22.46754001407676</v>
+        <v>0.09661346819200001</v>
       </c>
       <c r="R2">
-        <v>22.46754001407676</v>
+        <v>0.386453872768</v>
       </c>
       <c r="S2">
-        <v>0.01017455402326741</v>
+        <v>3.470415021005843E-05</v>
       </c>
       <c r="T2">
-        <v>0.01017455402326741</v>
+        <v>1.559699317650413E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H3">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I3">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J3">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.69853684966225</v>
+        <v>1.770252</v>
       </c>
       <c r="N3">
-        <v>1.69853684966225</v>
+        <v>5.310756</v>
       </c>
       <c r="O3">
-        <v>0.1041234078848248</v>
+        <v>0.08975263815546759</v>
       </c>
       <c r="P3">
-        <v>0.1041234078848248</v>
+        <v>0.09068857254068391</v>
       </c>
       <c r="Q3">
-        <v>128.1654033257956</v>
+        <v>0.554981083008</v>
       </c>
       <c r="R3">
-        <v>128.1654033257956</v>
+        <v>3.329886498048</v>
       </c>
       <c r="S3">
-        <v>0.05804043607956826</v>
+        <v>0.0001993526081702691</v>
       </c>
       <c r="T3">
-        <v>0.05804043607956826</v>
+        <v>0.0001343917622473065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H4">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I4">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J4">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.014125320130439</v>
+        <v>10.33148</v>
       </c>
       <c r="N4">
-        <v>8.014125320130439</v>
+        <v>30.99444</v>
       </c>
       <c r="O4">
-        <v>0.4912805039902278</v>
+        <v>0.5238110653457533</v>
       </c>
       <c r="P4">
-        <v>0.4912805039902278</v>
+        <v>0.5292733313859411</v>
       </c>
       <c r="Q4">
-        <v>604.7167031802884</v>
+        <v>3.238960305920001</v>
       </c>
       <c r="R4">
-        <v>604.7167031802884</v>
+        <v>19.43376183552</v>
       </c>
       <c r="S4">
-        <v>0.273849418379809</v>
+        <v>0.001163454403248222</v>
       </c>
       <c r="T4">
-        <v>0.273849418379809</v>
+        <v>0.0007843322893140651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H5">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I5">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J5">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.87839063467238</v>
+        <v>6.856480333333334</v>
       </c>
       <c r="N5">
-        <v>5.87839063467238</v>
+        <v>20.569441</v>
       </c>
       <c r="O5">
-        <v>0.3603560710985085</v>
+        <v>0.3476268906222089</v>
       </c>
       <c r="P5">
-        <v>0.3603560710985085</v>
+        <v>0.3512519201126578</v>
       </c>
       <c r="Q5">
-        <v>443.5619437689435</v>
+        <v>2.149534010421334</v>
       </c>
       <c r="R5">
-        <v>443.5619437689435</v>
+        <v>12.897204062528</v>
       </c>
       <c r="S5">
-        <v>0.200869563677867</v>
+        <v>0.0007721257975238307</v>
       </c>
       <c r="T5">
-        <v>0.200869563677867</v>
+        <v>0.0005205216403148627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H6">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I6">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J6">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.122088862857975</v>
+        <v>0.1548006666666667</v>
       </c>
       <c r="N6">
-        <v>0.122088862857975</v>
+        <v>0.464402</v>
       </c>
       <c r="O6">
-        <v>0.007484270045765084</v>
+        <v>0.007848469156684183</v>
       </c>
       <c r="P6">
-        <v>0.007484270045765084</v>
+        <v>0.007930312457405064</v>
       </c>
       <c r="Q6">
-        <v>9.212380851726355</v>
+        <v>0.04853062820266667</v>
       </c>
       <c r="R6">
-        <v>9.212380851726355</v>
+        <v>0.291183769216</v>
       </c>
       <c r="S6">
-        <v>0.004171879369084354</v>
+        <v>1.74324992410665E-05</v>
       </c>
       <c r="T6">
-        <v>0.004171879369084354</v>
+        <v>1.175196208810452E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>75.4563572472867</v>
+        <v>0.313504</v>
       </c>
       <c r="H7">
-        <v>75.4563572472867</v>
+        <v>0.627008</v>
       </c>
       <c r="I7">
-        <v>0.5574196740061483</v>
+        <v>0.002221133687735783</v>
       </c>
       <c r="J7">
-        <v>0.5574196740061483</v>
+        <v>0.001481904042397589</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.301831080546719</v>
+        <v>0.3024905</v>
       </c>
       <c r="N7">
-        <v>0.301831080546719</v>
+        <v>0.604981</v>
       </c>
       <c r="O7">
-        <v>0.01850279593188264</v>
+        <v>0.01533641560182758</v>
       </c>
       <c r="P7">
-        <v>0.01850279593188264</v>
+        <v>0.01033089513135898</v>
       </c>
       <c r="Q7">
-        <v>22.77507384206779</v>
+        <v>0.094831981712</v>
       </c>
       <c r="R7">
-        <v>22.77507384206779</v>
+        <v>0.379327926848</v>
       </c>
       <c r="S7">
-        <v>0.01031382247655231</v>
+        <v>3.406422934233589E-05</v>
       </c>
       <c r="T7">
-        <v>0.01031382247655231</v>
+        <v>1.530939525674645E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H8">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I8">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J8">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.297755428882497</v>
+        <v>0.308173</v>
       </c>
       <c r="N8">
-        <v>0.297755428882497</v>
+        <v>0.6163460000000001</v>
       </c>
       <c r="O8">
-        <v>0.01825295104879127</v>
+        <v>0.01562452111805829</v>
       </c>
       <c r="P8">
-        <v>0.01825295104879127</v>
+        <v>0.01052496837195314</v>
       </c>
       <c r="Q8">
-        <v>17.74991135147478</v>
+        <v>24.756983962235</v>
       </c>
       <c r="R8">
-        <v>17.74991135147478</v>
+        <v>148.54190377341</v>
       </c>
       <c r="S8">
-        <v>0.008038148895724077</v>
+        <v>0.00889286044949739</v>
       </c>
       <c r="T8">
-        <v>0.008038148895724077</v>
+        <v>0.005995041641023117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H9">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I9">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J9">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.69853684966225</v>
+        <v>1.770252</v>
       </c>
       <c r="N9">
-        <v>1.69853684966225</v>
+        <v>5.310756</v>
       </c>
       <c r="O9">
-        <v>0.1041234078848248</v>
+        <v>0.08975263815546759</v>
       </c>
       <c r="P9">
-        <v>0.1041234078848248</v>
+        <v>0.09068857254068391</v>
       </c>
       <c r="Q9">
-        <v>101.2538331269715</v>
+        <v>142.21265449314</v>
       </c>
       <c r="R9">
-        <v>101.2538331269715</v>
+        <v>1279.91389043826</v>
       </c>
       <c r="S9">
-        <v>0.04585337756460245</v>
+        <v>0.05108365754444306</v>
       </c>
       <c r="T9">
-        <v>0.04585337756460245</v>
+        <v>0.05165638028852845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H10">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I10">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J10">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.014125320130439</v>
+        <v>10.33148</v>
       </c>
       <c r="N10">
-        <v>8.014125320130439</v>
+        <v>30.99444</v>
       </c>
       <c r="O10">
-        <v>0.4912805039902278</v>
+        <v>0.5238110653457533</v>
       </c>
       <c r="P10">
-        <v>0.4912805039902278</v>
+        <v>0.5292733313859411</v>
       </c>
       <c r="Q10">
-        <v>477.7411264197664</v>
+        <v>829.9762946986</v>
       </c>
       <c r="R10">
-        <v>477.7411264197664</v>
+        <v>7469.7866522874</v>
       </c>
       <c r="S10">
-        <v>0.2163478020668512</v>
+        <v>0.2981325744850239</v>
       </c>
       <c r="T10">
-        <v>0.2163478020668512</v>
+        <v>0.3014750780246688</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H11">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I11">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J11">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.87839063467238</v>
+        <v>6.856480333333334</v>
       </c>
       <c r="N11">
-        <v>5.87839063467238</v>
+        <v>20.569441</v>
       </c>
       <c r="O11">
-        <v>0.3603560710985085</v>
+        <v>0.3476268906222089</v>
       </c>
       <c r="P11">
-        <v>0.3603560710985085</v>
+        <v>0.3512519201126578</v>
       </c>
       <c r="Q11">
-        <v>350.4248874533546</v>
+        <v>550.8132563518317</v>
       </c>
       <c r="R11">
-        <v>350.4248874533546</v>
+        <v>4957.319307166485</v>
       </c>
       <c r="S11">
-        <v>0.1586919149251627</v>
+        <v>0.1978554992781869</v>
       </c>
       <c r="T11">
-        <v>0.1586919149251627</v>
+        <v>0.2000737496918422</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H12">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I12">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J12">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.122088862857975</v>
+        <v>0.1548006666666667</v>
       </c>
       <c r="N12">
-        <v>0.122088862857975</v>
+        <v>0.464402</v>
       </c>
       <c r="O12">
-        <v>0.007484270045765084</v>
+        <v>0.007848469156684183</v>
       </c>
       <c r="P12">
-        <v>0.007484270045765084</v>
+        <v>0.007930312457405064</v>
       </c>
       <c r="Q12">
-        <v>7.278008333431954</v>
+        <v>12.43586434246333</v>
       </c>
       <c r="R12">
-        <v>7.278008333431954</v>
+        <v>111.92277908217</v>
       </c>
       <c r="S12">
-        <v>0.00329588770839613</v>
+        <v>0.00446703872875245</v>
       </c>
       <c r="T12">
-        <v>0.00329588770839613</v>
+        <v>0.004517120786334976</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.6123852992095</v>
+        <v>80.334695</v>
       </c>
       <c r="H13">
-        <v>59.6123852992095</v>
+        <v>241.004085</v>
       </c>
       <c r="I13">
-        <v>0.4403753055731979</v>
+        <v>0.5691605126520854</v>
       </c>
       <c r="J13">
-        <v>0.4403753055731979</v>
+        <v>0.5696018675931284</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.301831080546719</v>
+        <v>0.3024905</v>
       </c>
       <c r="N13">
-        <v>0.301831080546719</v>
+        <v>0.604981</v>
       </c>
       <c r="O13">
-        <v>0.01850279593188264</v>
+        <v>0.01533641560182758</v>
       </c>
       <c r="P13">
-        <v>0.01850279593188264</v>
+        <v>0.01033089513135898</v>
       </c>
       <c r="Q13">
-        <v>17.99287066882775</v>
+        <v>24.3004820578975</v>
       </c>
       <c r="R13">
-        <v>17.99287066882775</v>
+        <v>145.802892347385</v>
       </c>
       <c r="S13">
-        <v>0.00814817441246134</v>
+        <v>0.008728882166181626</v>
       </c>
       <c r="T13">
-        <v>0.00814817441246134</v>
+        <v>0.005884497160730833</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.298487506554318</v>
+        <v>59.89871966666666</v>
       </c>
       <c r="H14">
-        <v>0.298487506554318</v>
+        <v>179.696159</v>
       </c>
       <c r="I14">
-        <v>0.002205020420653806</v>
+        <v>0.4243743751399511</v>
       </c>
       <c r="J14">
-        <v>0.002205020420653806</v>
+        <v>0.4247034558178204</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.297755428882497</v>
+        <v>0.308173</v>
       </c>
       <c r="N14">
-        <v>0.297755428882497</v>
+        <v>0.6163460000000001</v>
       </c>
       <c r="O14">
-        <v>0.01825295104879127</v>
+        <v>0.01562452111805829</v>
       </c>
       <c r="P14">
-        <v>0.01825295104879127</v>
+        <v>0.01052496837195314</v>
       </c>
       <c r="Q14">
-        <v>0.0888762755301481</v>
+        <v>18.45916813583567</v>
       </c>
       <c r="R14">
-        <v>0.0888762755301481</v>
+        <v>110.755008815014</v>
       </c>
       <c r="S14">
-        <v>4.024812979977904E-05</v>
+        <v>0.006630646386336956</v>
       </c>
       <c r="T14">
-        <v>4.024812979977904E-05</v>
+        <v>0.004469990439941758</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.298487506554318</v>
+        <v>59.89871966666666</v>
       </c>
       <c r="H15">
-        <v>0.298487506554318</v>
+        <v>179.696159</v>
       </c>
       <c r="I15">
-        <v>0.002205020420653806</v>
+        <v>0.4243743751399511</v>
       </c>
       <c r="J15">
-        <v>0.002205020420653806</v>
+        <v>0.4247034558178204</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.69853684966225</v>
+        <v>1.770252</v>
       </c>
       <c r="N15">
-        <v>1.69853684966225</v>
+        <v>5.310756</v>
       </c>
       <c r="O15">
-        <v>0.1041234078848248</v>
+        <v>0.08975263815546759</v>
       </c>
       <c r="P15">
-        <v>0.1041234078848248</v>
+        <v>0.09068857254068391</v>
       </c>
       <c r="Q15">
-        <v>0.5069920290463115</v>
+        <v>106.035828287356</v>
       </c>
       <c r="R15">
-        <v>0.5069920290463115</v>
+        <v>954.3224545862039</v>
       </c>
       <c r="S15">
-        <v>0.0002295942406541042</v>
+        <v>0.03808871973438869</v>
       </c>
       <c r="T15">
-        <v>0.0002295942406541042</v>
+        <v>0.03851575016121355</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.298487506554318</v>
+        <v>59.89871966666666</v>
       </c>
       <c r="H16">
-        <v>0.298487506554318</v>
+        <v>179.696159</v>
       </c>
       <c r="I16">
-        <v>0.002205020420653806</v>
+        <v>0.4243743751399511</v>
       </c>
       <c r="J16">
-        <v>0.002205020420653806</v>
+        <v>0.4247034558178204</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.014125320130439</v>
+        <v>10.33148</v>
       </c>
       <c r="N16">
-        <v>8.014125320130439</v>
+        <v>30.99444</v>
       </c>
       <c r="O16">
-        <v>0.4912805039902278</v>
+        <v>0.5238110653457533</v>
       </c>
       <c r="P16">
-        <v>0.4912805039902278</v>
+        <v>0.5292733313859411</v>
       </c>
       <c r="Q16">
-        <v>2.39211628401956</v>
+        <v>618.8424242617733</v>
       </c>
       <c r="R16">
-        <v>2.39211628401956</v>
+        <v>5569.58181835596</v>
       </c>
       <c r="S16">
-        <v>0.001083283543567546</v>
+        <v>0.2222919935474961</v>
       </c>
       <c r="T16">
-        <v>0.001083283543567546</v>
+        <v>0.2247842129118197</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.298487506554318</v>
+        <v>59.89871966666666</v>
       </c>
       <c r="H17">
-        <v>0.298487506554318</v>
+        <v>179.696159</v>
       </c>
       <c r="I17">
-        <v>0.002205020420653806</v>
+        <v>0.4243743751399511</v>
       </c>
       <c r="J17">
-        <v>0.002205020420653806</v>
+        <v>0.4247034558178204</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.87839063467238</v>
+        <v>6.856480333333334</v>
       </c>
       <c r="N17">
-        <v>5.87839063467238</v>
+        <v>20.569441</v>
       </c>
       <c r="O17">
-        <v>0.3603560710985085</v>
+        <v>0.3476268906222089</v>
       </c>
       <c r="P17">
-        <v>0.3603560710985085</v>
+        <v>0.3512519201126578</v>
       </c>
       <c r="Q17">
-        <v>1.754626163095613</v>
+        <v>410.6943933863466</v>
       </c>
       <c r="R17">
-        <v>1.754626163095613</v>
+        <v>3696.249540477119</v>
       </c>
       <c r="S17">
-        <v>0.0007945924954787859</v>
+        <v>0.147523944489644</v>
       </c>
       <c r="T17">
-        <v>0.0007945924954787859</v>
+        <v>0.1491779043344907</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.298487506554318</v>
+        <v>59.89871966666666</v>
       </c>
       <c r="H18">
-        <v>0.298487506554318</v>
+        <v>179.696159</v>
       </c>
       <c r="I18">
-        <v>0.002205020420653806</v>
+        <v>0.4243743751399511</v>
       </c>
       <c r="J18">
-        <v>0.002205020420653806</v>
+        <v>0.4247034558178204</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.122088862857975</v>
+        <v>0.1548006666666667</v>
       </c>
       <c r="N18">
-        <v>0.122088862857975</v>
+        <v>0.464402</v>
       </c>
       <c r="O18">
-        <v>0.007484270045765084</v>
+        <v>0.007848469156684183</v>
       </c>
       <c r="P18">
-        <v>0.007484270045765084</v>
+        <v>0.007930312457405064</v>
       </c>
       <c r="Q18">
-        <v>0.03644200025252904</v>
+        <v>9.272361736879777</v>
       </c>
       <c r="R18">
-        <v>0.03644200025252904</v>
+        <v>83.45125563191799</v>
       </c>
       <c r="S18">
-        <v>1.65029682845996E-05</v>
+        <v>0.003330689194173029</v>
       </c>
       <c r="T18">
-        <v>1.65029682845996E-05</v>
+        <v>0.003368031106375043</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>59.89871966666666</v>
+      </c>
+      <c r="H19">
+        <v>179.696159</v>
+      </c>
+      <c r="I19">
+        <v>0.4243743751399511</v>
+      </c>
+      <c r="J19">
+        <v>0.4247034558178204</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3024905</v>
+      </c>
+      <c r="N19">
+        <v>0.604981</v>
+      </c>
+      <c r="O19">
+        <v>0.01533641560182758</v>
+      </c>
+      <c r="P19">
+        <v>0.01033089513135898</v>
+      </c>
+      <c r="Q19">
+        <v>18.11879366132983</v>
+      </c>
+      <c r="R19">
+        <v>108.712761967979</v>
+      </c>
+      <c r="S19">
+        <v>0.006508381787912175</v>
+      </c>
+      <c r="T19">
+        <v>0.004387566863979655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.753273</v>
+      </c>
+      <c r="I20">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J20">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.308173</v>
+      </c>
+      <c r="N20">
+        <v>0.6163460000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.01562452111805829</v>
+      </c>
+      <c r="P20">
+        <v>0.01052496837195314</v>
+      </c>
+      <c r="Q20">
+        <v>0.1801038000763333</v>
+      </c>
+      <c r="R20">
+        <v>1.080622800458</v>
+      </c>
+      <c r="S20">
+        <v>6.469438938709955E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.361313893530694E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.753273</v>
+      </c>
+      <c r="I21">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J21">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.770252</v>
+      </c>
+      <c r="N21">
+        <v>5.310756</v>
+      </c>
+      <c r="O21">
+        <v>0.08975263815546759</v>
+      </c>
+      <c r="P21">
+        <v>0.09068857254068391</v>
+      </c>
+      <c r="Q21">
+        <v>1.034578344932</v>
+      </c>
+      <c r="R21">
+        <v>9.311205104388</v>
+      </c>
+      <c r="S21">
+        <v>0.0003716268855522442</v>
+      </c>
+      <c r="T21">
+        <v>0.0003757933681398353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.753273</v>
+      </c>
+      <c r="I22">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J22">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.33148</v>
+      </c>
+      <c r="N22">
+        <v>30.99444</v>
+      </c>
+      <c r="O22">
+        <v>0.5238110653457533</v>
+      </c>
+      <c r="P22">
+        <v>0.5292733313859411</v>
+      </c>
+      <c r="Q22">
+        <v>6.037968311346667</v>
+      </c>
+      <c r="R22">
+        <v>54.34171480212</v>
+      </c>
+      <c r="S22">
+        <v>0.002168875242363969</v>
+      </c>
+      <c r="T22">
+        <v>0.002193191515710388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.753273</v>
+      </c>
+      <c r="I23">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J23">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.856480333333334</v>
+      </c>
+      <c r="N23">
+        <v>20.569441</v>
+      </c>
+      <c r="O23">
+        <v>0.3476268906222089</v>
+      </c>
+      <c r="P23">
+        <v>0.3512519201126578</v>
+      </c>
+      <c r="Q23">
+        <v>4.007093947821445</v>
+      </c>
+      <c r="R23">
+        <v>36.063845530393</v>
+      </c>
+      <c r="S23">
+        <v>0.00143937271762827</v>
+      </c>
+      <c r="T23">
+        <v>0.001455510197445264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.753273</v>
+      </c>
+      <c r="I24">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J24">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1548006666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.464402</v>
+      </c>
+      <c r="O24">
+        <v>0.007848469156684183</v>
+      </c>
+      <c r="P24">
+        <v>0.007930312457405064</v>
+      </c>
+      <c r="Q24">
+        <v>0.09046927641622222</v>
+      </c>
+      <c r="R24">
+        <v>0.814223487746</v>
+      </c>
+      <c r="S24">
+        <v>3.249711884790664E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.286145922555579E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5844243333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.753273</v>
+      </c>
+      <c r="I25">
+        <v>0.004140567822736531</v>
+      </c>
+      <c r="J25">
+        <v>0.004143778621846211</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3024905</v>
+      </c>
+      <c r="N25">
+        <v>0.604981</v>
+      </c>
+      <c r="O25">
+        <v>0.01533641560182758</v>
+      </c>
+      <c r="P25">
+        <v>0.01033089513135898</v>
+      </c>
+      <c r="Q25">
+        <v>0.1767828088021667</v>
+      </c>
+      <c r="R25">
+        <v>1.060696852813</v>
+      </c>
+      <c r="S25">
+        <v>6.350146895704178E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.280894238986044E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.014596</v>
+      </c>
+      <c r="H26">
+        <v>0.029192</v>
+      </c>
+      <c r="I26">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J26">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.308173</v>
+      </c>
+      <c r="N26">
+        <v>0.6163460000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.01562452111805829</v>
+      </c>
+      <c r="P26">
+        <v>0.01052496837195314</v>
+      </c>
+      <c r="Q26">
+        <v>0.004498093108</v>
+      </c>
+      <c r="R26">
+        <v>0.017992372432</v>
+      </c>
+      <c r="S26">
+        <v>1.615742626779923E-06</v>
+      </c>
+      <c r="T26">
+        <v>7.261588764553382E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.298487506554318</v>
-      </c>
-      <c r="H19">
-        <v>0.298487506554318</v>
-      </c>
-      <c r="I19">
-        <v>0.002205020420653806</v>
-      </c>
-      <c r="J19">
-        <v>0.002205020420653806</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.301831080546719</v>
-      </c>
-      <c r="N19">
-        <v>0.301831080546719</v>
-      </c>
-      <c r="O19">
-        <v>0.01850279593188264</v>
-      </c>
-      <c r="P19">
-        <v>0.01850279593188264</v>
-      </c>
-      <c r="Q19">
-        <v>0.09009280663298566</v>
-      </c>
-      <c r="R19">
-        <v>0.09009280663298566</v>
-      </c>
-      <c r="S19">
-        <v>4.079904286899138E-05</v>
-      </c>
-      <c r="T19">
-        <v>4.079904286899138E-05</v>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.014596</v>
+      </c>
+      <c r="H27">
+        <v>0.029192</v>
+      </c>
+      <c r="I27">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J27">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.770252</v>
+      </c>
+      <c r="N27">
+        <v>5.310756</v>
+      </c>
+      <c r="O27">
+        <v>0.08975263815546759</v>
+      </c>
+      <c r="P27">
+        <v>0.09068857254068391</v>
+      </c>
+      <c r="Q27">
+        <v>0.025838598192</v>
+      </c>
+      <c r="R27">
+        <v>0.155031589152</v>
+      </c>
+      <c r="S27">
+        <v>9.281382913306523E-06</v>
+      </c>
+      <c r="T27">
+        <v>6.256960554767039E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.014596</v>
+      </c>
+      <c r="H28">
+        <v>0.029192</v>
+      </c>
+      <c r="I28">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J28">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>10.33148</v>
+      </c>
+      <c r="N28">
+        <v>30.99444</v>
+      </c>
+      <c r="O28">
+        <v>0.5238110653457533</v>
+      </c>
+      <c r="P28">
+        <v>0.5292733313859411</v>
+      </c>
+      <c r="Q28">
+        <v>0.15079828208</v>
+      </c>
+      <c r="R28">
+        <v>0.90478969248</v>
+      </c>
+      <c r="S28">
+        <v>5.416766762086306E-05</v>
+      </c>
+      <c r="T28">
+        <v>3.651664442823088E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.014596</v>
+      </c>
+      <c r="H29">
+        <v>0.029192</v>
+      </c>
+      <c r="I29">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J29">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.856480333333334</v>
+      </c>
+      <c r="N29">
+        <v>20.569441</v>
+      </c>
+      <c r="O29">
+        <v>0.3476268906222089</v>
+      </c>
+      <c r="P29">
+        <v>0.3512519201126578</v>
+      </c>
+      <c r="Q29">
+        <v>0.1000771869453333</v>
+      </c>
+      <c r="R29">
+        <v>0.600463121672</v>
+      </c>
+      <c r="S29">
+        <v>3.594833922584028E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.42342485647256E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.014596</v>
+      </c>
+      <c r="H30">
+        <v>0.029192</v>
+      </c>
+      <c r="I30">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J30">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1548006666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.464402</v>
+      </c>
+      <c r="O30">
+        <v>0.007848469156684183</v>
+      </c>
+      <c r="P30">
+        <v>0.007930312457405064</v>
+      </c>
+      <c r="Q30">
+        <v>0.002259470530666667</v>
+      </c>
+      <c r="R30">
+        <v>0.013556823184</v>
+      </c>
+      <c r="S30">
+        <v>8.116156697286368E-07</v>
+      </c>
+      <c r="T30">
+        <v>5.471433813857993E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.014596</v>
+      </c>
+      <c r="H31">
+        <v>0.029192</v>
+      </c>
+      <c r="I31">
+        <v>0.000103410697490914</v>
+      </c>
+      <c r="J31">
+        <v>6.89939248074513E-05</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.3024905</v>
+      </c>
+      <c r="N31">
+        <v>0.604981</v>
+      </c>
+      <c r="O31">
+        <v>0.01533641560182758</v>
+      </c>
+      <c r="P31">
+        <v>0.01033089513135898</v>
+      </c>
+      <c r="Q31">
+        <v>0.004415151337999999</v>
+      </c>
+      <c r="R31">
+        <v>0.017660605352</v>
+      </c>
+      <c r="S31">
+        <v>1.585949434395525E-06</v>
+      </c>
+      <c r="T31">
+        <v>7.127690018866462E-07</v>
       </c>
     </row>
   </sheetData>
